--- a/project_data/machaccnt_withdraw/提现接口测试用例.xlsx
+++ b/project_data/machaccnt_withdraw/提现接口测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_withdraw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E3F624-9E8C-4021-ABB0-C065D25D99E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AABF67-5C2A-4345-98AF-83FF11FB27EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="提现" sheetId="14" r:id="rId1"/>
     <sheet name="bug级别" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="377">
   <si>
     <t>级别</t>
   </si>
@@ -1841,6 +1841,10 @@
 "sign_type": "MD5",
 "timestamp": "20191028022240"
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现接口异常调用测试用例123</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2250,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2403,7 +2407,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
@@ -4609,15 +4613,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -4634,18 +4643,13 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4658,7 +4662,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4667,6 +4671,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -4675,17 +4688,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
